--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>1174.680072009792</v>
+        <v>10.35074139316533</v>
       </c>
       <c r="R2">
-        <v>10572.12064808813</v>
+        <v>93.156672538488</v>
       </c>
       <c r="S2">
-        <v>0.2599473511804268</v>
+        <v>0.003636201619892214</v>
       </c>
       <c r="T2">
-        <v>0.2599473511804268</v>
+        <v>0.003636201619892215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>1180.183185159916</v>
+        <v>843.7804190570751</v>
       </c>
       <c r="R3">
-        <v>10621.64866643924</v>
+        <v>7594.023771513675</v>
       </c>
       <c r="S3">
-        <v>0.2611651463237235</v>
+        <v>0.2964189336847496</v>
       </c>
       <c r="T3">
-        <v>0.2611651463237235</v>
+        <v>0.2964189336847497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>56.672138994439</v>
+        <v>64.91393798364565</v>
       </c>
       <c r="R4">
-        <v>510.049250949951</v>
+        <v>584.2254418528109</v>
       </c>
       <c r="S4">
-        <v>0.01254109333116412</v>
+        <v>0.02280417967021899</v>
       </c>
       <c r="T4">
-        <v>0.01254109333116412</v>
+        <v>0.022804179670219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>595.5700146796802</v>
+        <v>7.34014536632</v>
       </c>
       <c r="R5">
-        <v>5360.13013211712</v>
+        <v>66.06130829688</v>
       </c>
       <c r="S5">
-        <v>0.1317949043722096</v>
+        <v>0.002578583258671777</v>
       </c>
       <c r="T5">
-        <v>0.1317949043722096</v>
+        <v>0.002578583258671777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
-        <v>598.3601268623067</v>
+        <v>598.3601268623066</v>
       </c>
       <c r="R6">
         <v>5385.24114176076</v>
       </c>
       <c r="S6">
-        <v>0.132412333992965</v>
+        <v>0.2102031129878579</v>
       </c>
       <c r="T6">
-        <v>0.132412333992965</v>
+        <v>0.2102031129878579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>28.73312270897667</v>
+        <v>46.03319926579</v>
       </c>
       <c r="R7">
-        <v>258.59810438079</v>
+        <v>414.2987933921099</v>
       </c>
       <c r="S7">
-        <v>0.00635841138137431</v>
+        <v>0.01617140138865925</v>
       </c>
       <c r="T7">
-        <v>0.00635841138137431</v>
+        <v>0.01617140138865926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>430.95326354208</v>
+        <v>14.36871602438133</v>
       </c>
       <c r="R8">
-        <v>3878.579371878719</v>
+        <v>129.318444219432</v>
       </c>
       <c r="S8">
-        <v>0.09536652745683956</v>
+        <v>0.005047710738684481</v>
       </c>
       <c r="T8">
-        <v>0.09536652745683956</v>
+        <v>0.005047710738684482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>432.9721831000066</v>
+        <v>1171.321045308907</v>
       </c>
       <c r="R9">
-        <v>3896.74964790006</v>
+        <v>10541.88940778016</v>
       </c>
       <c r="S9">
-        <v>0.09581329828732744</v>
+        <v>0.4114835179998258</v>
       </c>
       <c r="T9">
-        <v>0.09581329828732744</v>
+        <v>0.4114835179998259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>20.79122974290167</v>
+        <v>90.11237992354765</v>
       </c>
       <c r="R10">
-        <v>187.121067686115</v>
+        <v>811.0114193119289</v>
       </c>
       <c r="S10">
-        <v>0.004600933673969691</v>
+        <v>0.03165635865143992</v>
       </c>
       <c r="T10">
-        <v>0.004600933673969691</v>
+        <v>0.03165635865143992</v>
       </c>
     </row>
   </sheetData>
